--- a/images/Assets_Charms.xlsx
+++ b/images/Assets_Charms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danma\Desktop\Python VM\.1 Axieboo\Erc1155\Origins_New\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bc1770a078d8fad1/Área de Trabalho/Python Scripts/.1 Axieboo/Erc1155/Origins_New/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEB6ED04-9F78-40BE-BAD8-196EAAA4C655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{FEB6ED04-9F78-40BE-BAD8-196EAAA4C655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E36F2EC4-D534-4896-9356-EBDC09F71159}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{4DCE9402-6D6C-4D4E-B029-768C55B455AA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{4DCE9402-6D6C-4D4E-B029-768C55B455AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="244">
   <si>
     <t>ID</t>
   </si>
@@ -732,13 +730,49 @@
   </si>
   <si>
     <t>2006074</t>
+  </si>
+  <si>
+    <t>Bloodpact</t>
+  </si>
+  <si>
+    <t>Cursed Doll</t>
+  </si>
+  <si>
+    <t>Purifying Incense</t>
+  </si>
+  <si>
+    <t>Deadly Spell</t>
+  </si>
+  <si>
+    <t>Wooden Doll</t>
+  </si>
+  <si>
+    <t>Discount Coupon</t>
+  </si>
+  <si>
+    <t>2007075</t>
+  </si>
+  <si>
+    <t>2007076</t>
+  </si>
+  <si>
+    <t>2007077</t>
+  </si>
+  <si>
+    <t>2007078</t>
+  </si>
+  <si>
+    <t>2007079</t>
+  </si>
+  <si>
+    <t>2007080</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -751,6 +785,12 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -775,8 +815,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,7 +835,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1091,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A44EE5-C403-4C96-882E-5E309BBA35F7}">
-  <dimension ref="A1:C572"/>
+  <dimension ref="A1:C578"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G499" sqref="G499:G572"/>
+    <sheetView tabSelected="1" topLeftCell="A540" workbookViewId="0">
+      <selection activeCell="A575" sqref="A575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6752,7 +6792,7 @@
         <v>2007016</v>
       </c>
       <c r="B514" t="s">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="C514" s="1" t="s">
         <v>4</v>
@@ -6763,7 +6803,7 @@
         <v>2007017</v>
       </c>
       <c r="B515" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C515" s="1" t="s">
         <v>4</v>
@@ -6774,7 +6814,7 @@
         <v>102</v>
       </c>
       <c r="B516" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C516" s="1" t="s">
         <v>4</v>
@@ -6785,7 +6825,7 @@
         <v>103</v>
       </c>
       <c r="B517" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C517" s="1" t="s">
         <v>4</v>
@@ -6796,7 +6836,7 @@
         <v>104</v>
       </c>
       <c r="B518" t="s">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="C518" s="1" t="s">
         <v>4</v>
@@ -6806,66 +6846,66 @@
       <c r="A519" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B519" s="1" t="s">
-        <v>38</v>
+      <c r="B519" t="s">
+        <v>234</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B520" s="1" t="s">
-        <v>81</v>
+      <c r="B520" t="s">
+        <v>17</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B521" s="1" t="s">
-        <v>82</v>
+      <c r="B521" t="s">
+        <v>20</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B522" s="1" t="s">
-        <v>40</v>
+      <c r="B522" t="s">
+        <v>235</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B523" s="1" t="s">
-        <v>83</v>
+      <c r="B523" t="s">
+        <v>236</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B524" s="1" t="s">
-        <v>84</v>
+      <c r="B524" t="s">
+        <v>237</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
@@ -6873,7 +6913,7 @@
         <v>111</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C525" s="1" t="s">
         <v>37</v>
@@ -6884,7 +6924,7 @@
         <v>112</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C526" s="1" t="s">
         <v>37</v>
@@ -6895,7 +6935,7 @@
         <v>113</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C527" s="1" t="s">
         <v>37</v>
@@ -6906,10 +6946,10 @@
         <v>114</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
@@ -6917,10 +6957,10 @@
         <v>115</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
@@ -6928,10 +6968,10 @@
         <v>116</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
@@ -6939,10 +6979,10 @@
         <v>117</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
@@ -6950,10 +6990,10 @@
         <v>118</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
@@ -6961,10 +7001,10 @@
         <v>119</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
@@ -6972,7 +7012,7 @@
         <v>120</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="C534" s="1" t="s">
         <v>55</v>
@@ -6983,7 +7023,7 @@
         <v>121</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C535" s="1" t="s">
         <v>55</v>
@@ -6994,7 +7034,7 @@
         <v>122</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="C536" s="1" t="s">
         <v>55</v>
@@ -7005,10 +7045,10 @@
         <v>123</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
@@ -7016,10 +7056,10 @@
         <v>124</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
@@ -7027,10 +7067,10 @@
         <v>125</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
@@ -7038,10 +7078,10 @@
         <v>126</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
@@ -7049,10 +7089,10 @@
         <v>127</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
@@ -7060,10 +7100,10 @@
         <v>128</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
@@ -7071,7 +7111,7 @@
         <v>129</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C543" s="1" t="s">
         <v>46</v>
@@ -7082,7 +7122,7 @@
         <v>130</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C544" s="1" t="s">
         <v>46</v>
@@ -7093,7 +7133,7 @@
         <v>131</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="C545" s="1" t="s">
         <v>46</v>
@@ -7104,10 +7144,10 @@
         <v>132</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
@@ -7115,10 +7155,10 @@
         <v>133</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
@@ -7126,10 +7166,10 @@
         <v>134</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
@@ -7137,10 +7177,10 @@
         <v>135</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
@@ -7148,10 +7188,10 @@
         <v>136</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
@@ -7159,10 +7199,10 @@
         <v>137</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
@@ -7170,7 +7210,7 @@
         <v>138</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C552" s="1" t="s">
         <v>64</v>
@@ -7181,7 +7221,7 @@
         <v>139</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C553" s="1" t="s">
         <v>64</v>
@@ -7192,7 +7232,7 @@
         <v>140</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C554" s="1" t="s">
         <v>64</v>
@@ -7203,10 +7243,10 @@
         <v>141</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
@@ -7214,10 +7254,10 @@
         <v>142</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
@@ -7225,10 +7265,10 @@
         <v>143</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
@@ -7236,10 +7276,10 @@
         <v>144</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
@@ -7247,10 +7287,10 @@
         <v>145</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
@@ -7258,10 +7298,10 @@
         <v>146</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
@@ -7269,7 +7309,7 @@
         <v>147</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C561" s="1" t="s">
         <v>28</v>
@@ -7280,7 +7320,7 @@
         <v>148</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="C562" s="1" t="s">
         <v>28</v>
@@ -7291,7 +7331,7 @@
         <v>149</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C563" s="1" t="s">
         <v>28</v>
@@ -7302,10 +7342,10 @@
         <v>150</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
@@ -7313,10 +7353,10 @@
         <v>151</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
@@ -7324,10 +7364,10 @@
         <v>152</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
@@ -7335,10 +7375,10 @@
         <v>153</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
@@ -7346,10 +7386,10 @@
         <v>154</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
@@ -7357,10 +7397,10 @@
         <v>155</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
@@ -7368,7 +7408,7 @@
         <v>156</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C570" s="1" t="s">
         <v>73</v>
@@ -7379,7 +7419,7 @@
         <v>157</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C571" s="1" t="s">
         <v>73</v>
@@ -7390,13 +7430,80 @@
         <v>158</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C572" s="1" t="s">
         <v>73</v>
       </c>
     </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>